--- a/xlsx/圣玛丽亚 (加利福尼亚州)_intext.xlsx
+++ b/xlsx/圣玛丽亚 (加利福尼亚州)_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
   <si>
     <t>圣玛丽亚 (加利福尼亚州)</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>國家</t>
+    <t>国家</t>
   </si>
   <si>
     <t>政策_政策_加州_圣玛丽亚 (加利福尼亚州)</t>
@@ -35,31 +35,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E5%90%88%E7%9C%BE%E5%9C%8B</t>
   </si>
   <si>
-    <t>美利堅合眾國</t>
+    <t>美利坚合众国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>美國行政區劃</t>
+    <t>美国行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亞州</t>
+    <t>加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>加利福尼亞州行政區劃</t>
+    <t>加利福尼亚州行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%B7%B4%E5%B7%B4%E6%8B%89%E7%B8%A3</t>
   </si>
   <si>
-    <t>聖巴巴拉縣</t>
+    <t>圣巴巴拉县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%B6%E5%8C%BA</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E6%A8%99%E6%BA%96%E6%99%82%E9%96%93</t>
   </si>
   <si>
-    <t>太平洋標準時間</t>
+    <t>太平洋标准时间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UTC-8</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E6%97%A5%E5%85%89%E7%AF%80%E7%B4%84%E6%99%82%E9%96%93</t>
   </si>
   <si>
-    <t>太平洋日光節約時間</t>
+    <t>太平洋日光节约时间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UTC-7</t>
@@ -107,9 +107,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亚州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
@@ -119,7 +116,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%B7%B4%E5%B7%B4%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖巴巴拉縣 (加利福尼亞州)</t>
+    <t>圣巴巴拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%BF%E5%9F%8E</t>
@@ -185,19 +182,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E7%94%B3%E5%B8%8C%E7%88%BE%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>米申希爾斯 (加利福尼亞州)</t>
+    <t>米申希尔斯 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%83%E7%99%BB%E5%A0%A1%E7%A9%BA%E8%BB%8D%E5%9F%BA%E5%9C%B0</t>
   </si>
   <si>
-    <t>范登堡空軍基地</t>
+    <t>范登堡空军基地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E5%BB%BA%E5%88%B6%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>非建制地區</t>
+    <t>非建制地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BF%9D%E7%95%99%E5%9C%B0</t>
@@ -215,7 +212,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AC%BC%E9%8E%AE</t>
   </si>
   <si>
-    <t>鬼鎮</t>
+    <t>鬼镇</t>
   </si>
 </sst>
 </file>
@@ -992,7 +989,7 @@
         <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G15" t="n">
         <v>10</v>
@@ -1018,10 +1015,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1047,10 +1044,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>3</v>
@@ -1076,10 +1073,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1105,10 +1102,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>4</v>
@@ -1134,10 +1131,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>4</v>
@@ -1163,10 +1160,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1192,10 +1189,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1221,10 +1218,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1250,10 +1247,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1279,10 +1276,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1308,10 +1305,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" t="s">
         <v>37</v>
-      </c>
-      <c r="F26" t="s">
-        <v>38</v>
       </c>
       <c r="G26" t="n">
         <v>5</v>
@@ -1337,10 +1334,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" t="s">
         <v>51</v>
-      </c>
-      <c r="F27" t="s">
-        <v>52</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1366,10 +1363,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
         <v>53</v>
-      </c>
-      <c r="F28" t="s">
-        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1395,10 +1392,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s">
         <v>55</v>
-      </c>
-      <c r="F29" t="s">
-        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1424,10 +1421,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
         <v>57</v>
-      </c>
-      <c r="F30" t="s">
-        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1453,10 +1450,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
         <v>59</v>
-      </c>
-      <c r="F31" t="s">
-        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1482,10 +1479,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
         <v>61</v>
-      </c>
-      <c r="F32" t="s">
-        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>2</v>
@@ -1511,10 +1508,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
         <v>63</v>
-      </c>
-      <c r="F33" t="s">
-        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1540,10 +1537,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
         <v>65</v>
-      </c>
-      <c r="F34" t="s">
-        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
